--- a/biology/Botanique/Cytisus_ratisbonensis/Cytisus_ratisbonensis.xlsx
+++ b/biology/Botanique/Cytisus_ratisbonensis/Cytisus_ratisbonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus ratisbonensis, de nom commun cytise à longues grappes ou petit cytise glabre[2], est une espèce de plante de la famille des Fabaceae et du genre Genista.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus ratisbonensis, de nom commun cytise à longues grappes ou petit cytise glabre, est une espèce de plante de la famille des Fabaceae et du genre Genista.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus ratisbonensis est un arbuste d'une hauteur de 50 à 150 cm[3].
-L'inflorescence est en racème simple. La couleur de la fleur est jaune. La floraison a lieu de mai à juin[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus ratisbonensis est un arbuste d'une hauteur de 50 à 150 cm.
+L'inflorescence est en racème simple. La couleur de la fleur est jaune. La floraison a lieu de mai à juin.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, Cytisus ratisbonensis n'est présente que dans quatre départements : la Drôme, l’Ardèche, le Gard et la Lozère. Elle est aussi présente en Europe de l’est : Serbie, Hongrie, Bulgarie, Roumanie[5].
-Le cytise à longues grappes est présent dans les milieux de transition (pelouse colonisée par le boisement, lisière forestière, sous-bois clair…)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, Cytisus ratisbonensis n'est présente que dans quatre départements : la Drôme, l’Ardèche, le Gard et la Lozère. Elle est aussi présente en Europe de l’est : Serbie, Hongrie, Bulgarie, Roumanie.
+Le cytise à longues grappes est présent dans les milieux de transition (pelouse colonisée par le boisement, lisière forestière, sous-bois clair…).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit a pour parasite Exapion elongatulum. La feuille a pour parasite Callophrys rubi, Livilla radiata (sv), Dasineura bursifex (nl), Phytomyza cytisi (nl), Phyllonorycter eugregori (en), Phyllonorycter staintoniella, Uromyces fulgens, Uromyces genistae, Ctenocallis dobrovljanskyi (sv), Asphondylia cytisi (sv). La racine a pour parasite Bembecia megillaeformis (en). La tige a pour parasite Anthaxia chevrieri (id), Arytaina maculata (sv) et Trifurcula pallidella[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit a pour parasite Exapion elongatulum. La feuille a pour parasite Callophrys rubi, Livilla radiata (sv), Dasineura bursifex (nl), Phytomyza cytisi (nl), Phyllonorycter eugregori (en), Phyllonorycter staintoniella, Uromyces fulgens, Uromyces genistae, Ctenocallis dobrovljanskyi (sv), Asphondylia cytisi (sv). La racine a pour parasite Bembecia megillaeformis (en). La tige a pour parasite Anthaxia chevrieri (id), Arytaina maculata (sv) et Trifurcula pallidella.
 </t>
         </is>
       </c>
